--- a/source/fr_dc_age_sex/xlsx/2012_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2012_dc_age_sex_e.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27217"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="27460" windowHeight="14320"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="27460" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -187,29 +195,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000080"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Total
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000080"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>7,302</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="6"/>
         <rFont val="Times New Roman"/>
       </rPr>
@@ -2596,6 +2581,9 @@
       <t>F              M</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3203,6 +3191,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -3254,96 +3320,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3634,82 +3633,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="99" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="99" customWidth="1"/>
-    <col min="12" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" customWidth="1"/>
-    <col min="20" max="20" width="7.1640625" customWidth="1"/>
-    <col min="21" max="21" width="6.83203125" customWidth="1"/>
-    <col min="22" max="23" width="6.6640625" customWidth="1"/>
-    <col min="24" max="24" width="6.83203125" customWidth="1"/>
-    <col min="25" max="25" width="7.1640625" style="99" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" style="99" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="4" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" style="66" customWidth="1"/>
+    <col min="8" max="9" width="6.59765625" customWidth="1"/>
+    <col min="10" max="10" width="6.796875" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="66" customWidth="1"/>
+    <col min="12" max="13" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="16" width="6.796875" customWidth="1"/>
+    <col min="17" max="18" width="6.59765625" customWidth="1"/>
+    <col min="19" max="19" width="6.796875" customWidth="1"/>
+    <col min="20" max="20" width="7.19921875" customWidth="1"/>
+    <col min="21" max="21" width="6.796875" customWidth="1"/>
+    <col min="22" max="23" width="6.59765625" customWidth="1"/>
+    <col min="24" max="24" width="6.796875" customWidth="1"/>
+    <col min="25" max="25" width="7.19921875" style="66" customWidth="1"/>
+    <col min="26" max="26" width="8.59765625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="11" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74" t="s">
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="77" t="s">
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="101" t="s">
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3722,7 +3721,7 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3734,59 +3733,59 @@
       <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="107"/>
+    </row>
+    <row r="3" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="102"/>
-    </row>
-    <row r="3" spans="1:26" ht="11" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>153</v>
+      <c r="B3" s="79" t="s">
+        <v>152</v>
       </c>
       <c r="C3" s="14">
         <v>1444</v>
@@ -3800,8 +3799,8 @@
       <c r="F3" s="17">
         <v>2183</v>
       </c>
-      <c r="G3" s="95" t="s">
-        <v>30</v>
+      <c r="G3" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="H3" s="18">
         <v>1792</v>
@@ -3812,15 +3811,17 @@
       <c r="J3" s="20">
         <v>2561</v>
       </c>
-      <c r="K3" s="96"/>
+      <c r="K3" s="109">
+        <v>7302</v>
+      </c>
       <c r="L3" s="14">
         <v>4757</v>
       </c>
       <c r="M3" s="17">
         <v>6246</v>
       </c>
-      <c r="N3" s="80" t="s">
-        <v>31</v>
+      <c r="N3" s="83" t="s">
+        <v>30</v>
       </c>
       <c r="O3" s="18">
         <v>2785</v>
@@ -3837,8 +3838,8 @@
       <c r="S3" s="20">
         <v>1365</v>
       </c>
-      <c r="T3" s="80" t="s">
-        <v>32</v>
+      <c r="T3" s="83" t="s">
+        <v>31</v>
       </c>
       <c r="U3" s="14">
         <v>4286</v>
@@ -3852,16 +3853,16 @@
       <c r="X3" s="17">
         <v>7321</v>
       </c>
-      <c r="Y3" s="95" t="s">
+      <c r="Y3" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="103" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="11" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
+    <row r="4" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="88"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="23">
         <v>1552</v>
       </c>
@@ -3874,7 +3875,7 @@
       <c r="F4" s="26">
         <v>2267</v>
       </c>
-      <c r="G4" s="96"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="27">
         <v>1996</v>
       </c>
@@ -3884,7 +3885,7 @@
       <c r="J4" s="29">
         <v>2825</v>
       </c>
-      <c r="K4" s="100">
+      <c r="K4" s="67">
         <v>7953</v>
       </c>
       <c r="L4" s="23">
@@ -3893,7 +3894,7 @@
       <c r="M4" s="26">
         <v>6773</v>
       </c>
-      <c r="N4" s="81"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="27">
         <v>2881</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="S4" s="29">
         <v>1470</v>
       </c>
-      <c r="T4" s="81"/>
+      <c r="T4" s="84"/>
       <c r="U4" s="23">
         <v>4518</v>
       </c>
@@ -3922,14 +3923,14 @@
       <c r="X4" s="26">
         <v>7696</v>
       </c>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="104"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="86"/>
     </row>
-    <row r="5" spans="1:26" ht="11" customHeight="1">
-      <c r="A5" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="87"/>
+    <row r="5" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="76"/>
       <c r="C5" s="32">
         <v>2996</v>
       </c>
@@ -3942,7 +3943,7 @@
       <c r="F5" s="34">
         <v>4450</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="64">
         <v>18704</v>
       </c>
       <c r="H5" s="35">
@@ -3954,7 +3955,7 @@
       <c r="J5" s="37">
         <v>5386</v>
       </c>
-      <c r="K5" s="100">
+      <c r="K5" s="67">
         <v>15255</v>
       </c>
       <c r="L5" s="32">
@@ -3996,19 +3997,19 @@
       <c r="X5" s="34">
         <v>15017</v>
       </c>
-      <c r="Y5" s="97">
+      <c r="Y5" s="64">
         <v>41678</v>
       </c>
-      <c r="Z5" s="105">
+      <c r="Z5" s="68">
         <v>143748</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="11" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>154</v>
+    <row r="6" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="14">
         <v>2496</v>
@@ -4022,8 +4023,8 @@
       <c r="F6" s="17">
         <v>3667</v>
       </c>
-      <c r="G6" s="95" t="s">
-        <v>37</v>
+      <c r="G6" s="81" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="18">
         <v>2775</v>
@@ -4034,8 +4035,8 @@
       <c r="J6" s="20">
         <v>4047</v>
       </c>
-      <c r="K6" s="95" t="s">
-        <v>38</v>
+      <c r="K6" s="81" t="s">
+        <v>37</v>
       </c>
       <c r="L6" s="14">
         <v>7107</v>
@@ -4043,8 +4044,8 @@
       <c r="M6" s="17">
         <v>9680</v>
       </c>
-      <c r="N6" s="80" t="s">
-        <v>39</v>
+      <c r="N6" s="83" t="s">
+        <v>38</v>
       </c>
       <c r="O6" s="18">
         <v>3680</v>
@@ -4061,8 +4062,8 @@
       <c r="S6" s="20">
         <v>1901</v>
       </c>
-      <c r="T6" s="80" t="s">
-        <v>40</v>
+      <c r="T6" s="83" t="s">
+        <v>39</v>
       </c>
       <c r="U6" s="14">
         <v>6671</v>
@@ -4076,16 +4077,16 @@
       <c r="X6" s="17">
         <v>10963</v>
       </c>
-      <c r="Y6" s="95" t="s">
+      <c r="Y6" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="103" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" ht="11" customHeight="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="85"/>
+    <row r="7" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="88"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="23">
         <v>2552</v>
       </c>
@@ -4098,7 +4099,7 @@
       <c r="F7" s="26">
         <v>3671</v>
       </c>
-      <c r="G7" s="96"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="27">
         <v>2816</v>
       </c>
@@ -4108,14 +4109,14 @@
       <c r="J7" s="29">
         <v>4135</v>
       </c>
-      <c r="K7" s="96"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="23">
         <v>7453</v>
       </c>
       <c r="M7" s="26">
         <v>10124</v>
       </c>
-      <c r="N7" s="81"/>
+      <c r="N7" s="84"/>
       <c r="O7" s="27">
         <v>4044</v>
       </c>
@@ -4131,7 +4132,7 @@
       <c r="S7" s="29">
         <v>2115</v>
       </c>
-      <c r="T7" s="81"/>
+      <c r="T7" s="84"/>
       <c r="U7" s="23">
         <v>7101</v>
       </c>
@@ -4144,14 +4145,14 @@
       <c r="X7" s="26">
         <v>11568</v>
       </c>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="104"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="86"/>
     </row>
-    <row r="8" spans="1:26" ht="11" customHeight="1">
-      <c r="A8" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="87"/>
+    <row r="8" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="76"/>
       <c r="C8" s="32">
         <v>5048</v>
       </c>
@@ -4164,7 +4165,7 @@
       <c r="F8" s="34">
         <v>7338</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="64">
         <v>30802</v>
       </c>
       <c r="H8" s="35">
@@ -4176,7 +4177,7 @@
       <c r="J8" s="37">
         <v>8182</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="67">
         <v>23243</v>
       </c>
       <c r="L8" s="32">
@@ -4218,19 +4219,19 @@
       <c r="X8" s="34">
         <v>22531</v>
       </c>
-      <c r="Y8" s="97">
+      <c r="Y8" s="64">
         <v>65133</v>
       </c>
-      <c r="Z8" s="105">
+      <c r="Z8" s="68">
         <v>224371</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="11" customHeight="1">
-      <c r="A9" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>153</v>
+    <row r="9" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>152</v>
       </c>
       <c r="C9" s="14">
         <v>3026</v>
@@ -4244,8 +4245,8 @@
       <c r="F9" s="17">
         <v>4448</v>
       </c>
-      <c r="G9" s="95" t="s">
-        <v>45</v>
+      <c r="G9" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="18">
         <v>3229</v>
@@ -4256,8 +4257,8 @@
       <c r="J9" s="20">
         <v>4486</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>46</v>
+      <c r="K9" s="81" t="s">
+        <v>45</v>
       </c>
       <c r="L9" s="14">
         <v>6743</v>
@@ -4265,8 +4266,8 @@
       <c r="M9" s="17">
         <v>9404</v>
       </c>
-      <c r="N9" s="80" t="s">
-        <v>47</v>
+      <c r="N9" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="O9" s="18">
         <v>4097</v>
@@ -4283,8 +4284,8 @@
       <c r="S9" s="20">
         <v>1792</v>
       </c>
-      <c r="T9" s="80" t="s">
-        <v>48</v>
+      <c r="T9" s="83" t="s">
+        <v>47</v>
       </c>
       <c r="U9" s="14">
         <v>6348</v>
@@ -4298,16 +4299,16 @@
       <c r="X9" s="17">
         <v>12472</v>
       </c>
-      <c r="Y9" s="95" t="s">
+      <c r="Y9" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="Z9" s="103" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="10" spans="1:26" ht="11" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="85"/>
+    <row r="10" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="88"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="23">
         <v>2926</v>
       </c>
@@ -4320,7 +4321,7 @@
       <c r="F10" s="26">
         <v>4466</v>
       </c>
-      <c r="G10" s="96"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="42">
         <v>3371</v>
       </c>
@@ -4330,14 +4331,14 @@
       <c r="J10" s="44">
         <v>4516</v>
       </c>
-      <c r="K10" s="96"/>
+      <c r="K10" s="82"/>
       <c r="L10" s="23">
         <v>7042</v>
       </c>
       <c r="M10" s="26">
         <v>10341</v>
       </c>
-      <c r="N10" s="81"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="27">
         <v>3997</v>
       </c>
@@ -4353,7 +4354,7 @@
       <c r="S10" s="29">
         <v>1733</v>
       </c>
-      <c r="T10" s="81"/>
+      <c r="T10" s="84"/>
       <c r="U10" s="23">
         <v>6518</v>
       </c>
@@ -4366,14 +4367,14 @@
       <c r="X10" s="26">
         <v>12469</v>
       </c>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="104"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="86"/>
     </row>
-    <row r="11" spans="1:26" ht="11" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="87"/>
+    <row r="11" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="76"/>
       <c r="C11" s="32">
         <v>5952</v>
       </c>
@@ -4386,7 +4387,7 @@
       <c r="F11" s="34">
         <v>8914</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="64">
         <v>35604</v>
       </c>
       <c r="H11" s="45">
@@ -4398,7 +4399,7 @@
       <c r="J11" s="47">
         <v>9002</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="67">
         <v>25684</v>
       </c>
       <c r="L11" s="32">
@@ -4440,19 +4441,19 @@
       <c r="X11" s="34">
         <v>24941</v>
       </c>
-      <c r="Y11" s="97">
+      <c r="Y11" s="64">
         <v>66010</v>
       </c>
-      <c r="Z11" s="105">
+      <c r="Z11" s="68">
         <v>228823</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="11" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>153</v>
+    <row r="12" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>152</v>
       </c>
       <c r="C12" s="14">
         <v>3615</v>
@@ -4466,8 +4467,8 @@
       <c r="F12" s="17">
         <v>4432</v>
       </c>
-      <c r="G12" s="95" t="s">
-        <v>53</v>
+      <c r="G12" s="81" t="s">
+        <v>52</v>
       </c>
       <c r="H12" s="18">
         <v>4344</v>
@@ -4478,8 +4479,8 @@
       <c r="J12" s="20">
         <v>5438</v>
       </c>
-      <c r="K12" s="95" t="s">
-        <v>54</v>
+      <c r="K12" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="L12" s="14">
         <v>6630</v>
@@ -4487,8 +4488,8 @@
       <c r="M12" s="17">
         <v>9999</v>
       </c>
-      <c r="N12" s="80" t="s">
-        <v>55</v>
+      <c r="N12" s="83" t="s">
+        <v>54</v>
       </c>
       <c r="O12" s="18">
         <v>5491</v>
@@ -4505,8 +4506,8 @@
       <c r="S12" s="20">
         <v>1943</v>
       </c>
-      <c r="T12" s="80" t="s">
-        <v>56</v>
+      <c r="T12" s="83" t="s">
+        <v>55</v>
       </c>
       <c r="U12" s="14">
         <v>5186</v>
@@ -4520,16 +4521,16 @@
       <c r="X12" s="17">
         <v>13357</v>
       </c>
-      <c r="Y12" s="95" t="s">
+      <c r="Y12" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="103" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="13" spans="1:26" ht="11" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="85"/>
+    <row r="13" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="88"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="23">
         <v>3466</v>
       </c>
@@ -4542,7 +4543,7 @@
       <c r="F13" s="26">
         <v>4481</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="27">
         <v>4547</v>
       </c>
@@ -4552,14 +4553,14 @@
       <c r="J13" s="29">
         <v>5287</v>
       </c>
-      <c r="K13" s="96"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="23">
         <v>7131</v>
       </c>
       <c r="M13" s="26">
         <v>10665</v>
       </c>
-      <c r="N13" s="81"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="27">
         <v>5359</v>
       </c>
@@ -4575,7 +4576,7 @@
       <c r="S13" s="29">
         <v>2022</v>
       </c>
-      <c r="T13" s="81"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="23">
         <v>5775</v>
       </c>
@@ -4588,14 +4589,14 @@
       <c r="X13" s="26">
         <v>14173</v>
       </c>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="104"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="86"/>
     </row>
-    <row r="14" spans="1:26" ht="11" customHeight="1">
-      <c r="A14" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="87"/>
+    <row r="14" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="76"/>
       <c r="C14" s="32">
         <v>7081</v>
       </c>
@@ -4608,7 +4609,7 @@
       <c r="F14" s="34">
         <v>8913</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="64">
         <v>40424</v>
       </c>
       <c r="H14" s="35">
@@ -4620,7 +4621,7 @@
       <c r="J14" s="37">
         <v>10725</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="67">
         <v>30278</v>
       </c>
       <c r="L14" s="32">
@@ -4662,19 +4663,19 @@
       <c r="X14" s="34">
         <v>27530</v>
       </c>
-      <c r="Y14" s="97">
+      <c r="Y14" s="64">
         <v>65451</v>
       </c>
-      <c r="Z14" s="105">
+      <c r="Z14" s="68">
         <v>245078</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="11" customHeight="1">
-      <c r="A15" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>154</v>
+    <row r="15" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="14">
         <v>4624</v>
@@ -4688,8 +4689,8 @@
       <c r="F15" s="17">
         <v>5183</v>
       </c>
-      <c r="G15" s="95" t="s">
-        <v>61</v>
+      <c r="G15" s="81" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="18">
         <v>5499</v>
@@ -4700,8 +4701,8 @@
       <c r="J15" s="20">
         <v>6905</v>
       </c>
-      <c r="K15" s="95" t="s">
-        <v>62</v>
+      <c r="K15" s="81" t="s">
+        <v>61</v>
       </c>
       <c r="L15" s="14">
         <v>7988</v>
@@ -4709,8 +4710,8 @@
       <c r="M15" s="17">
         <v>11718</v>
       </c>
-      <c r="N15" s="80" t="s">
-        <v>63</v>
+      <c r="N15" s="83" t="s">
+        <v>62</v>
       </c>
       <c r="O15" s="18">
         <v>6681</v>
@@ -4727,8 +4728,8 @@
       <c r="S15" s="20">
         <v>2877</v>
       </c>
-      <c r="T15" s="80" t="s">
-        <v>64</v>
+      <c r="T15" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="U15" s="14">
         <v>5128</v>
@@ -4742,16 +4743,16 @@
       <c r="X15" s="17">
         <v>13024</v>
       </c>
-      <c r="Y15" s="95" t="s">
+      <c r="Y15" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="103" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="16" spans="1:26" ht="11" customHeight="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="85"/>
+    <row r="16" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="88"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="23">
         <v>4111</v>
       </c>
@@ -4764,7 +4765,7 @@
       <c r="F16" s="26">
         <v>5043</v>
       </c>
-      <c r="G16" s="96"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="27">
         <v>5698</v>
       </c>
@@ -4774,14 +4775,14 @@
       <c r="J16" s="29">
         <v>6915</v>
       </c>
-      <c r="K16" s="96"/>
+      <c r="K16" s="82"/>
       <c r="L16" s="23">
         <v>7967</v>
       </c>
       <c r="M16" s="26">
         <v>12045</v>
       </c>
-      <c r="N16" s="81"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="27">
         <v>6452</v>
       </c>
@@ -4797,7 +4798,7 @@
       <c r="S16" s="29">
         <v>2413</v>
       </c>
-      <c r="T16" s="81"/>
+      <c r="T16" s="84"/>
       <c r="U16" s="23">
         <v>4798</v>
       </c>
@@ -4810,14 +4811,14 @@
       <c r="X16" s="26">
         <v>13210</v>
       </c>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="104"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="86"/>
     </row>
-    <row r="17" spans="1:26" ht="11" customHeight="1">
-      <c r="A17" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="87"/>
+    <row r="17" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="76"/>
       <c r="C17" s="32">
         <v>8735</v>
       </c>
@@ -4830,7 +4831,7 @@
       <c r="F17" s="34">
         <v>10226</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="64">
         <v>47709</v>
       </c>
       <c r="H17" s="35">
@@ -4842,7 +4843,7 @@
       <c r="J17" s="37">
         <v>13820</v>
       </c>
-      <c r="K17" s="100">
+      <c r="K17" s="67">
         <v>37075</v>
       </c>
       <c r="L17" s="32">
@@ -4884,19 +4885,19 @@
       <c r="X17" s="34">
         <v>26234</v>
       </c>
-      <c r="Y17" s="97">
+      <c r="Y17" s="64">
         <v>66450</v>
       </c>
-      <c r="Z17" s="105">
+      <c r="Z17" s="68">
         <v>271542</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="11" customHeight="1">
-      <c r="A18" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>153</v>
+    <row r="18" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>152</v>
       </c>
       <c r="C18" s="14">
         <v>4900</v>
@@ -4910,8 +4911,8 @@
       <c r="F18" s="17">
         <v>6173</v>
       </c>
-      <c r="G18" s="95" t="s">
-        <v>69</v>
+      <c r="G18" s="81" t="s">
+        <v>68</v>
       </c>
       <c r="H18" s="18">
         <v>5285</v>
@@ -4922,8 +4923,8 @@
       <c r="J18" s="20">
         <v>7287</v>
       </c>
-      <c r="K18" s="95" t="s">
-        <v>70</v>
+      <c r="K18" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="L18" s="14">
         <v>9557</v>
@@ -4931,8 +4932,8 @@
       <c r="M18" s="17">
         <v>13305</v>
       </c>
-      <c r="N18" s="80" t="s">
-        <v>71</v>
+      <c r="N18" s="83" t="s">
+        <v>70</v>
       </c>
       <c r="O18" s="18">
         <v>6940</v>
@@ -4949,8 +4950,8 @@
       <c r="S18" s="20">
         <v>3547</v>
       </c>
-      <c r="T18" s="80" t="s">
-        <v>72</v>
+      <c r="T18" s="83" t="s">
+        <v>71</v>
       </c>
       <c r="U18" s="14">
         <v>7098</v>
@@ -4964,16 +4965,16 @@
       <c r="X18" s="17">
         <v>13815</v>
       </c>
-      <c r="Y18" s="95" t="s">
+      <c r="Y18" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="Z18" s="103" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="19" spans="1:26" ht="11" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="85"/>
+    <row r="19" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="88"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="23">
         <v>4283</v>
       </c>
@@ -4986,7 +4987,7 @@
       <c r="F19" s="26">
         <v>5501</v>
       </c>
-      <c r="G19" s="96"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="27">
         <v>5391</v>
       </c>
@@ -4996,14 +4997,14 @@
       <c r="J19" s="29">
         <v>6984</v>
       </c>
-      <c r="K19" s="96"/>
+      <c r="K19" s="82"/>
       <c r="L19" s="23">
         <v>8665</v>
       </c>
       <c r="M19" s="26">
         <v>12480</v>
       </c>
-      <c r="N19" s="81"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="27">
         <v>6277</v>
       </c>
@@ -5019,7 +5020,7 @@
       <c r="S19" s="29">
         <v>2790</v>
       </c>
-      <c r="T19" s="81"/>
+      <c r="T19" s="84"/>
       <c r="U19" s="23">
         <v>5714</v>
       </c>
@@ -5032,14 +5033,14 @@
       <c r="X19" s="26">
         <v>11489</v>
       </c>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="104"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="86"/>
     </row>
-    <row r="20" spans="1:26" ht="11" customHeight="1">
-      <c r="A20" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="87"/>
+    <row r="20" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="76"/>
       <c r="C20" s="32">
         <v>9183</v>
       </c>
@@ -5052,7 +5053,7 @@
       <c r="F20" s="34">
         <v>11674</v>
       </c>
-      <c r="G20" s="97">
+      <c r="G20" s="64">
         <v>51568</v>
       </c>
       <c r="H20" s="35">
@@ -5064,7 +5065,7 @@
       <c r="J20" s="37">
         <v>14271</v>
       </c>
-      <c r="K20" s="100">
+      <c r="K20" s="67">
         <v>37587</v>
       </c>
       <c r="L20" s="32">
@@ -5106,19 +5107,19 @@
       <c r="X20" s="34">
         <v>25304</v>
       </c>
-      <c r="Y20" s="97">
+      <c r="Y20" s="64">
         <v>70755</v>
       </c>
-      <c r="Z20" s="105">
+      <c r="Z20" s="68">
         <v>288035</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="11" customHeight="1">
-      <c r="A21" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>154</v>
+    <row r="21" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="14">
         <v>6051</v>
@@ -5132,8 +5133,8 @@
       <c r="F21" s="17">
         <v>8318</v>
       </c>
-      <c r="G21" s="95" t="s">
-        <v>77</v>
+      <c r="G21" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="H21" s="18">
         <v>5751</v>
@@ -5144,8 +5145,8 @@
       <c r="J21" s="20">
         <v>8839</v>
       </c>
-      <c r="K21" s="95" t="s">
-        <v>78</v>
+      <c r="K21" s="81" t="s">
+        <v>77</v>
       </c>
       <c r="L21" s="14">
         <v>13836</v>
@@ -5153,8 +5154,8 @@
       <c r="M21" s="17">
         <v>17041</v>
       </c>
-      <c r="N21" s="80" t="s">
-        <v>79</v>
+      <c r="N21" s="83" t="s">
+        <v>78</v>
       </c>
       <c r="O21" s="18">
         <v>8597</v>
@@ -5171,8 +5172,8 @@
       <c r="S21" s="20">
         <v>4086</v>
       </c>
-      <c r="T21" s="80" t="s">
-        <v>80</v>
+      <c r="T21" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="U21" s="14">
         <v>10465</v>
@@ -5186,16 +5187,16 @@
       <c r="X21" s="17">
         <v>19814</v>
       </c>
-      <c r="Y21" s="95" t="s">
+      <c r="Y21" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z21" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="Z21" s="103" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="22" spans="1:26" ht="11" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="85"/>
+    <row r="22" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="88"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="23">
         <v>5402</v>
       </c>
@@ -5208,7 +5209,7 @@
       <c r="F22" s="26">
         <v>7433</v>
       </c>
-      <c r="G22" s="96"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="27">
         <v>5572</v>
       </c>
@@ -5218,14 +5219,14 @@
       <c r="J22" s="29">
         <v>7890</v>
       </c>
-      <c r="K22" s="96"/>
+      <c r="K22" s="82"/>
       <c r="L22" s="23">
         <v>12529</v>
       </c>
       <c r="M22" s="26">
         <v>15836</v>
       </c>
-      <c r="N22" s="81"/>
+      <c r="N22" s="84"/>
       <c r="O22" s="27">
         <v>7814</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="S22" s="29">
         <v>3832</v>
       </c>
-      <c r="T22" s="81"/>
+      <c r="T22" s="84"/>
       <c r="U22" s="23">
         <v>8861</v>
       </c>
@@ -5254,14 +5255,14 @@
       <c r="X22" s="26">
         <v>16590</v>
       </c>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="104"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="86"/>
     </row>
-    <row r="23" spans="1:26" ht="11" customHeight="1">
-      <c r="A23" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="87"/>
+    <row r="23" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="76"/>
       <c r="C23" s="32">
         <v>11453</v>
       </c>
@@ -5274,7 +5275,7 @@
       <c r="F23" s="34">
         <v>15751</v>
       </c>
-      <c r="G23" s="97">
+      <c r="G23" s="64">
         <v>66982</v>
       </c>
       <c r="H23" s="35">
@@ -5286,7 +5287,7 @@
       <c r="J23" s="37">
         <v>16729</v>
       </c>
-      <c r="K23" s="100">
+      <c r="K23" s="67">
         <v>43826</v>
       </c>
       <c r="L23" s="32">
@@ -5328,19 +5329,19 @@
       <c r="X23" s="34">
         <v>36404</v>
       </c>
-      <c r="Y23" s="97">
+      <c r="Y23" s="64">
         <v>100916</v>
       </c>
-      <c r="Z23" s="105">
+      <c r="Z23" s="68">
         <v>383839</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="11" customHeight="1">
-      <c r="A24" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>153</v>
+    <row r="24" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>152</v>
       </c>
       <c r="C24" s="14">
         <v>6228</v>
@@ -5354,8 +5355,8 @@
       <c r="F24" s="17">
         <v>8959</v>
       </c>
-      <c r="G24" s="95" t="s">
-        <v>85</v>
+      <c r="G24" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="H24" s="18">
         <v>5747</v>
@@ -5366,8 +5367,8 @@
       <c r="J24" s="20">
         <v>8875</v>
       </c>
-      <c r="K24" s="95" t="s">
-        <v>86</v>
+      <c r="K24" s="81" t="s">
+        <v>85</v>
       </c>
       <c r="L24" s="14">
         <v>14497</v>
@@ -5375,8 +5376,8 @@
       <c r="M24" s="17">
         <v>17846</v>
       </c>
-      <c r="N24" s="80" t="s">
-        <v>87</v>
+      <c r="N24" s="83" t="s">
+        <v>86</v>
       </c>
       <c r="O24" s="18">
         <v>8022</v>
@@ -5393,8 +5394,8 @@
       <c r="S24" s="20">
         <v>3840</v>
       </c>
-      <c r="T24" s="80" t="s">
-        <v>88</v>
+      <c r="T24" s="83" t="s">
+        <v>87</v>
       </c>
       <c r="U24" s="14">
         <v>11337</v>
@@ -5408,16 +5409,16 @@
       <c r="X24" s="17">
         <v>23051</v>
       </c>
-      <c r="Y24" s="95" t="s">
+      <c r="Y24" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="Z24" s="103" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="25" spans="1:26" ht="11" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="85"/>
+    <row r="25" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="88"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="23">
         <v>6125</v>
       </c>
@@ -5430,7 +5431,7 @@
       <c r="F25" s="26">
         <v>8355</v>
       </c>
-      <c r="G25" s="96"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="27">
         <v>5666</v>
       </c>
@@ -5440,14 +5441,14 @@
       <c r="J25" s="29">
         <v>8622</v>
       </c>
-      <c r="K25" s="96"/>
+      <c r="K25" s="82"/>
       <c r="L25" s="23">
         <v>14695</v>
       </c>
       <c r="M25" s="26">
         <v>17526</v>
       </c>
-      <c r="N25" s="81"/>
+      <c r="N25" s="84"/>
       <c r="O25" s="27">
         <v>8186</v>
       </c>
@@ -5463,7 +5464,7 @@
       <c r="S25" s="29">
         <v>4213</v>
       </c>
-      <c r="T25" s="81"/>
+      <c r="T25" s="84"/>
       <c r="U25" s="23">
         <v>11343</v>
       </c>
@@ -5476,14 +5477,14 @@
       <c r="X25" s="26">
         <v>20934</v>
       </c>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="104"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="86"/>
     </row>
-    <row r="26" spans="1:26" ht="11" customHeight="1">
-      <c r="A26" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="87"/>
+    <row r="26" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="76"/>
       <c r="C26" s="32">
         <v>12353</v>
       </c>
@@ -5496,7 +5497,7 @@
       <c r="F26" s="34">
         <v>17314</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G26" s="64">
         <v>73572</v>
       </c>
       <c r="H26" s="35">
@@ -5508,7 +5509,7 @@
       <c r="J26" s="37">
         <v>17497</v>
       </c>
-      <c r="K26" s="100">
+      <c r="K26" s="67">
         <v>47560</v>
       </c>
       <c r="L26" s="32">
@@ -5550,19 +5551,19 @@
       <c r="X26" s="34">
         <v>43985</v>
       </c>
-      <c r="Y26" s="97">
+      <c r="Y26" s="64">
         <v>119017</v>
       </c>
-      <c r="Z26" s="105">
+      <c r="Z26" s="68">
         <v>429666</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="11" customHeight="1">
-      <c r="A27" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>154</v>
+    <row r="27" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C27" s="14">
         <v>5630</v>
@@ -5576,8 +5577,8 @@
       <c r="F27" s="17">
         <v>7365</v>
       </c>
-      <c r="G27" s="95" t="s">
-        <v>93</v>
+      <c r="G27" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="H27" s="18">
         <v>5231</v>
@@ -5588,8 +5589,8 @@
       <c r="J27" s="20">
         <v>8061</v>
       </c>
-      <c r="K27" s="95" t="s">
-        <v>94</v>
+      <c r="K27" s="81" t="s">
+        <v>93</v>
       </c>
       <c r="L27" s="14">
         <v>11194</v>
@@ -5597,8 +5598,8 @@
       <c r="M27" s="17">
         <v>15686</v>
       </c>
-      <c r="N27" s="80" t="s">
-        <v>95</v>
+      <c r="N27" s="83" t="s">
+        <v>94</v>
       </c>
       <c r="O27" s="18">
         <v>6560</v>
@@ -5615,8 +5616,8 @@
       <c r="S27" s="20">
         <v>3015</v>
       </c>
-      <c r="T27" s="80" t="s">
-        <v>96</v>
+      <c r="T27" s="83" t="s">
+        <v>95</v>
       </c>
       <c r="U27" s="14">
         <v>8011</v>
@@ -5630,16 +5631,16 @@
       <c r="X27" s="17">
         <v>19605</v>
       </c>
-      <c r="Y27" s="95" t="s">
+      <c r="Y27" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z27" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="Z27" s="103" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="28" spans="1:26" ht="11" customHeight="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="85"/>
+    <row r="28" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="88"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="23">
         <v>5492</v>
       </c>
@@ -5652,7 +5653,7 @@
       <c r="F28" s="26">
         <v>7205</v>
       </c>
-      <c r="G28" s="96"/>
+      <c r="G28" s="82"/>
       <c r="H28" s="27">
         <v>5208</v>
       </c>
@@ -5662,14 +5663,14 @@
       <c r="J28" s="29">
         <v>7325</v>
       </c>
-      <c r="K28" s="96"/>
+      <c r="K28" s="82"/>
       <c r="L28" s="23">
         <v>10888</v>
       </c>
       <c r="M28" s="26">
         <v>14714</v>
       </c>
-      <c r="N28" s="81"/>
+      <c r="N28" s="84"/>
       <c r="O28" s="27">
         <v>6440</v>
       </c>
@@ -5685,7 +5686,7 @@
       <c r="S28" s="29">
         <v>3439</v>
       </c>
-      <c r="T28" s="81"/>
+      <c r="T28" s="84"/>
       <c r="U28" s="23">
         <v>9032</v>
       </c>
@@ -5698,14 +5699,14 @@
       <c r="X28" s="26">
         <v>18340</v>
       </c>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="104"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="86"/>
     </row>
-    <row r="29" spans="1:26" ht="11" customHeight="1">
-      <c r="A29" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="87"/>
+    <row r="29" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="76"/>
       <c r="C29" s="32">
         <v>11122</v>
       </c>
@@ -5718,7 +5719,7 @@
       <c r="F29" s="34">
         <v>14570</v>
       </c>
-      <c r="G29" s="97">
+      <c r="G29" s="64">
         <v>64177</v>
       </c>
       <c r="H29" s="35">
@@ -5730,7 +5731,7 @@
       <c r="J29" s="37">
         <v>15386</v>
       </c>
-      <c r="K29" s="100">
+      <c r="K29" s="67">
         <v>42415</v>
       </c>
       <c r="L29" s="32">
@@ -5772,19 +5773,19 @@
       <c r="X29" s="34">
         <v>37945</v>
       </c>
-      <c r="Y29" s="97">
+      <c r="Y29" s="64">
         <v>94244</v>
       </c>
-      <c r="Z29" s="105">
+      <c r="Z29" s="68">
         <v>355588</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="11" customHeight="1">
-      <c r="A30" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>155</v>
+    <row r="30" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>154</v>
       </c>
       <c r="C30" s="14">
         <v>4690</v>
@@ -5798,8 +5799,8 @@
       <c r="F30" s="17">
         <v>6055</v>
       </c>
-      <c r="G30" s="95" t="s">
-        <v>101</v>
+      <c r="G30" s="81" t="s">
+        <v>100</v>
       </c>
       <c r="H30" s="18">
         <v>4788</v>
@@ -5810,8 +5811,8 @@
       <c r="J30" s="20">
         <v>7630</v>
       </c>
-      <c r="K30" s="95" t="s">
-        <v>102</v>
+      <c r="K30" s="81" t="s">
+        <v>101</v>
       </c>
       <c r="L30" s="14">
         <v>9109</v>
@@ -5819,8 +5820,8 @@
       <c r="M30" s="17">
         <v>14080</v>
       </c>
-      <c r="N30" s="80" t="s">
-        <v>103</v>
+      <c r="N30" s="83" t="s">
+        <v>102</v>
       </c>
       <c r="O30" s="18">
         <v>5363</v>
@@ -5837,8 +5838,8 @@
       <c r="S30" s="20">
         <v>2121</v>
       </c>
-      <c r="T30" s="80" t="s">
-        <v>104</v>
+      <c r="T30" s="83" t="s">
+        <v>103</v>
       </c>
       <c r="U30" s="14">
         <v>4602</v>
@@ -5852,16 +5853,16 @@
       <c r="X30" s="17">
         <v>14727</v>
       </c>
-      <c r="Y30" s="95" t="s">
+      <c r="Y30" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z30" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="Z30" s="103" t="s">
-        <v>106</v>
-      </c>
     </row>
-    <row r="31" spans="1:26" ht="11" customHeight="1">
-      <c r="A31" s="83"/>
-      <c r="B31" s="85"/>
+    <row r="31" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="88"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="23">
         <v>4907</v>
       </c>
@@ -5874,7 +5875,7 @@
       <c r="F31" s="26">
         <v>6139</v>
       </c>
-      <c r="G31" s="96"/>
+      <c r="G31" s="82"/>
       <c r="H31" s="27">
         <v>4891</v>
       </c>
@@ -5884,14 +5885,14 @@
       <c r="J31" s="29">
         <v>7184</v>
       </c>
-      <c r="K31" s="96"/>
+      <c r="K31" s="82"/>
       <c r="L31" s="23">
         <v>8751</v>
       </c>
       <c r="M31" s="26">
         <v>13063</v>
       </c>
-      <c r="N31" s="81"/>
+      <c r="N31" s="84"/>
       <c r="O31" s="27">
         <v>5383</v>
       </c>
@@ -5907,7 +5908,7 @@
       <c r="S31" s="29">
         <v>2721</v>
       </c>
-      <c r="T31" s="81"/>
+      <c r="T31" s="84"/>
       <c r="U31" s="23">
         <v>6204</v>
       </c>
@@ -5920,14 +5921,14 @@
       <c r="X31" s="26">
         <v>15418</v>
       </c>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="104"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="86"/>
     </row>
-    <row r="32" spans="1:26" ht="11" customHeight="1">
-      <c r="A32" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="87"/>
+    <row r="32" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="76"/>
       <c r="C32" s="32">
         <v>9597</v>
       </c>
@@ -5940,7 +5941,7 @@
       <c r="F32" s="34">
         <v>12194</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="64">
         <v>57421</v>
       </c>
       <c r="H32" s="35">
@@ -5952,7 +5953,7 @@
       <c r="J32" s="37">
         <v>14814</v>
       </c>
-      <c r="K32" s="100">
+      <c r="K32" s="67">
         <v>37952</v>
       </c>
       <c r="L32" s="32">
@@ -5994,19 +5995,19 @@
       <c r="X32" s="34">
         <v>30145</v>
       </c>
-      <c r="Y32" s="97">
+      <c r="Y32" s="64">
         <v>67966</v>
       </c>
-      <c r="Z32" s="105">
+      <c r="Z32" s="68">
         <v>286180</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="11" customHeight="1">
-      <c r="A33" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="84" t="s">
-        <v>154</v>
+    <row r="33" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="14">
         <v>2281</v>
@@ -6020,8 +6021,8 @@
       <c r="F33" s="17">
         <v>3416</v>
       </c>
-      <c r="G33" s="95" t="s">
-        <v>109</v>
+      <c r="G33" s="81" t="s">
+        <v>108</v>
       </c>
       <c r="H33" s="18">
         <v>2848</v>
@@ -6032,8 +6033,8 @@
       <c r="J33" s="20">
         <v>4869</v>
       </c>
-      <c r="K33" s="95" t="s">
-        <v>110</v>
+      <c r="K33" s="81" t="s">
+        <v>109</v>
       </c>
       <c r="L33" s="14">
         <v>5870</v>
@@ -6041,8 +6042,8 @@
       <c r="M33" s="17">
         <v>9155</v>
       </c>
-      <c r="N33" s="80" t="s">
-        <v>111</v>
+      <c r="N33" s="83" t="s">
+        <v>110</v>
       </c>
       <c r="O33" s="18">
         <v>3345</v>
@@ -6059,8 +6060,8 @@
       <c r="S33" s="20">
         <v>1022</v>
       </c>
-      <c r="T33" s="80" t="s">
-        <v>112</v>
+      <c r="T33" s="83" t="s">
+        <v>111</v>
       </c>
       <c r="U33" s="14">
         <v>2420</v>
@@ -6074,16 +6075,16 @@
       <c r="X33" s="17">
         <v>6963</v>
       </c>
-      <c r="Y33" s="95" t="s">
+      <c r="Y33" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z33" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="Z33" s="103" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="34" spans="1:26" ht="11" customHeight="1">
-      <c r="A34" s="83"/>
-      <c r="B34" s="85"/>
+    <row r="34" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="88"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="23">
         <v>2503</v>
       </c>
@@ -6096,7 +6097,7 @@
       <c r="F34" s="26">
         <v>3178</v>
       </c>
-      <c r="G34" s="96"/>
+      <c r="G34" s="82"/>
       <c r="H34" s="27">
         <v>3108</v>
       </c>
@@ -6106,14 +6107,14 @@
       <c r="J34" s="29">
         <v>4496</v>
       </c>
-      <c r="K34" s="96"/>
+      <c r="K34" s="82"/>
       <c r="L34" s="23">
         <v>5758</v>
       </c>
       <c r="M34" s="26">
         <v>9774</v>
       </c>
-      <c r="N34" s="81"/>
+      <c r="N34" s="84"/>
       <c r="O34" s="27">
         <v>3521</v>
       </c>
@@ -6129,7 +6130,7 @@
       <c r="S34" s="29">
         <v>1326</v>
       </c>
-      <c r="T34" s="81"/>
+      <c r="T34" s="84"/>
       <c r="U34" s="23">
         <v>3306</v>
       </c>
@@ -6142,14 +6143,14 @@
       <c r="X34" s="26">
         <v>8503</v>
       </c>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="104"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="86"/>
     </row>
-    <row r="35" spans="1:26" ht="11" customHeight="1">
-      <c r="A35" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="76"/>
       <c r="C35" s="32">
         <v>4784</v>
       </c>
@@ -6162,7 +6163,7 @@
       <c r="F35" s="34">
         <v>6594</v>
       </c>
-      <c r="G35" s="97">
+      <c r="G35" s="64">
         <v>30209</v>
       </c>
       <c r="H35" s="35">
@@ -6174,7 +6175,7 @@
       <c r="J35" s="37">
         <v>9365</v>
       </c>
-      <c r="K35" s="100">
+      <c r="K35" s="67">
         <v>23751</v>
       </c>
       <c r="L35" s="32">
@@ -6216,19 +6217,19 @@
       <c r="X35" s="34">
         <v>15466</v>
       </c>
-      <c r="Y35" s="97">
+      <c r="Y35" s="64">
         <v>35060</v>
       </c>
-      <c r="Z35" s="105">
+      <c r="Z35" s="68">
         <v>165172</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="11" customHeight="1">
-      <c r="A36" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>154</v>
+    <row r="36" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>153</v>
       </c>
       <c r="C36" s="14">
         <v>6815</v>
@@ -6242,8 +6243,8 @@
       <c r="F36" s="17">
         <v>10644</v>
       </c>
-      <c r="G36" s="95" t="s">
-        <v>117</v>
+      <c r="G36" s="81" t="s">
+        <v>116</v>
       </c>
       <c r="H36" s="18">
         <v>8387</v>
@@ -6254,8 +6255,8 @@
       <c r="J36" s="20">
         <v>14030</v>
       </c>
-      <c r="K36" s="95" t="s">
-        <v>118</v>
+      <c r="K36" s="81" t="s">
+        <v>117</v>
       </c>
       <c r="L36" s="14">
         <v>23868</v>
@@ -6263,8 +6264,8 @@
       <c r="M36" s="17">
         <v>28147</v>
       </c>
-      <c r="N36" s="80" t="s">
-        <v>119</v>
+      <c r="N36" s="83" t="s">
+        <v>118</v>
       </c>
       <c r="O36" s="18">
         <v>7433</v>
@@ -6281,8 +6282,8 @@
       <c r="S36" s="20">
         <v>3225</v>
       </c>
-      <c r="T36" s="80" t="s">
-        <v>120</v>
+      <c r="T36" s="83" t="s">
+        <v>119</v>
       </c>
       <c r="U36" s="14">
         <v>8266</v>
@@ -6296,16 +6297,16 @@
       <c r="X36" s="17">
         <v>17233</v>
       </c>
-      <c r="Y36" s="95" t="s">
+      <c r="Y36" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z36" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="Z36" s="103" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="37" spans="1:26" ht="11" customHeight="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="85"/>
+    <row r="37" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="78"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="23">
         <v>6923</v>
       </c>
@@ -6318,7 +6319,7 @@
       <c r="F37" s="26">
         <v>9709</v>
       </c>
-      <c r="G37" s="96"/>
+      <c r="G37" s="82"/>
       <c r="H37" s="27">
         <v>8770</v>
       </c>
@@ -6328,14 +6329,14 @@
       <c r="J37" s="29">
         <v>13361</v>
       </c>
-      <c r="K37" s="96"/>
+      <c r="K37" s="82"/>
       <c r="L37" s="23">
         <v>19232</v>
       </c>
       <c r="M37" s="26">
         <v>27659</v>
       </c>
-      <c r="N37" s="81"/>
+      <c r="N37" s="84"/>
       <c r="O37" s="27">
         <v>7789</v>
       </c>
@@ -6351,7 +6352,7 @@
       <c r="S37" s="29">
         <v>3158</v>
       </c>
-      <c r="T37" s="81"/>
+      <c r="T37" s="84"/>
       <c r="U37" s="23">
         <v>7359</v>
       </c>
@@ -6364,14 +6365,14 @@
       <c r="X37" s="26">
         <v>17095</v>
       </c>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="104"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="86"/>
     </row>
-    <row r="38" spans="1:26" ht="11" customHeight="1">
-      <c r="A38" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="91"/>
+    <row r="38" spans="1:26" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="72"/>
       <c r="C38" s="32">
         <v>13738</v>
       </c>
@@ -6384,7 +6385,7 @@
       <c r="F38" s="34">
         <v>20353</v>
       </c>
-      <c r="G38" s="97">
+      <c r="G38" s="64">
         <v>89506</v>
       </c>
       <c r="H38" s="35">
@@ -6396,7 +6397,7 @@
       <c r="J38" s="37">
         <v>27391</v>
       </c>
-      <c r="K38" s="100">
+      <c r="K38" s="67">
         <v>73342</v>
       </c>
       <c r="L38" s="32">
@@ -6438,98 +6439,98 @@
       <c r="X38" s="34">
         <v>34328</v>
       </c>
-      <c r="Y38" s="97">
+      <c r="Y38" s="64">
         <v>82014</v>
       </c>
-      <c r="Z38" s="105">
+      <c r="Z38" s="68">
         <v>444159</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="22" customHeight="1">
+    <row r="39" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="49" t="s">
+      <c r="D39" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="E39" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="F39" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="G39" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="98" t="s">
+      <c r="H39" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="I39" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="J39" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="52" t="s">
+      <c r="K39" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="98" t="s">
+      <c r="L39" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="M39" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="52" t="s">
+      <c r="N39" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="O39" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="O39" s="49" t="s">
+      <c r="P39" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="P39" s="53" t="s">
+      <c r="Q39" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="Q39" s="53" t="s">
+      <c r="R39" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="R39" s="53" t="s">
+      <c r="S39" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="S39" s="52" t="s">
+      <c r="T39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="U39" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="U39" s="49" t="s">
+      <c r="V39" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="V39" s="53" t="s">
+      <c r="W39" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="W39" s="53" t="s">
+      <c r="X39" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="X39" s="52" t="s">
+      <c r="Y39" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Y39" s="98" t="s">
+      <c r="Z39" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="Z39" s="106" t="s">
+    </row>
+    <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="18" customHeight="1">
-      <c r="A40" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="93"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="54">
         <v>102042</v>
       </c>
@@ -6542,7 +6543,7 @@
       <c r="F40" s="56">
         <v>138291</v>
       </c>
-      <c r="G40" s="97">
+      <c r="G40" s="64">
         <v>606678</v>
       </c>
       <c r="H40" s="57">
@@ -6554,7 +6555,7 @@
       <c r="J40" s="59">
         <v>162568</v>
       </c>
-      <c r="K40" s="100">
+      <c r="K40" s="67">
         <v>437968</v>
       </c>
       <c r="L40" s="54">
@@ -6596,34 +6597,121 @@
       <c r="X40" s="56">
         <v>339830</v>
       </c>
-      <c r="Y40" s="97">
+      <c r="Y40" s="64">
         <v>874694</v>
       </c>
-      <c r="Z40" s="107">
+      <c r="Z40" s="70">
         <v>3466201</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
-      <c r="A43" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="T36:T37"/>
+  <mergeCells count="116">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
     <mergeCell ref="Y36:Y37"/>
     <mergeCell ref="Z36:Z37"/>
     <mergeCell ref="A32:B32"/>
@@ -6635,111 +6723,18 @@
     <mergeCell ref="T33:T34"/>
     <mergeCell ref="Y33:Y34"/>
     <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6749,23 +6744,18 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="45.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="9" customHeight="1">
+    <row r="1" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>